--- a/mini/python_playwright/output/万科_5.xlsx
+++ b/mini/python_playwright/output/万科_5.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>权证投机 泡沫畸大终将破</t>
+          <t>郁亮：两大需求决定地产业的未来</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>陈雪;吴铭</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,32 +488,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2006-07-11</t>
+          <t>2004/11/24</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>尽管风险已近在咫尺，但仍有人敢玩“火中取栗”的游戏。G万科昨日发布公告，提示万科认沽权证的风险，该权证却大幅反弹11.03%。不过，短线的操纵无法改变泡沫破灭的必然趋势，形同废纸的绝大多数权证将给投机者带来深刻的教训。$$危险的“博傻游戏”$$</t>
+          <t>我们之所以再次关注房地产行业以及万科，有3个原因：加息；关于中国房地产“泡沫”之争又起；今年9月，万科在公司成立20周年之际提出：“10年后年销售收入达到1000亿元”。这等于万科要用10年时间再造10个</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltEiugohkkx9yhGgc3tQilrMkYjI6c5iXGDGVD3SKITNveFL83fVp3YmKwl8kcIhWYgMpJL0TfRh1Zvc2SlZCgCWgViAYNWsa64FuAkJEO17A==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25o-uCrLuFTXLihI_Jw7XMIJrfnImfTg5VMl0VnnsR4oK7axkK93ZZGvUfQauva4MuHFc_xPzuCtICr5RgEmrtmawvI3M7hbH4mHfTD6CC9UminNVA337zz&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>万科 以规范赢得15年持续增长</t>
+          <t>万科与新加坡GIGRE合作</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>陈雪;田世欣;丁文长江证券研究所;银河证券研究中心</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,32 +523,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2006-07-10</t>
+          <t>2004/11/24</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>规范与发展，在很多企业家看来，有时是一对矛盾，常常非此即彼，不能兼顾，但万科的实践却颠覆了这一惯性思维。$$数据显示，1988年到2005年18年间，万科股价增值115倍；1991年到2005年，万科主营业务复合增长率28%，净利润复合增长率31</t>
+          <t>万科（000002、200002）今日披露，该公司将与新加坡政府产业投资有限公司（GICRE）在成都合作开发项目。万科集团总经理郁亮、新加坡GICKE副总裁孙建军出席了11月21日在京举行的签约活动。$$</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltEiugohkkx9yhGgc3tQilrMkYjI6c5iXGDGVD3SKITNveFL83fVp3Yphs2WAGQWexYahcx5jVYI22pKA5es5_Hfhh5AnC53VQ4baCkGZeFJg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25o-uCrLuFTXLihI_Jw7XMIJrfnImfTg5VMl0VnnsR4oK7axkK93ZZG6r6pBcB5x-gy3lyMB60GjbWfgwOc40WOPpwOjt4cD7R94606qFsWUtO8PS70Y_Eb&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>投资评级简报</t>
+          <t>万科与农行签订46.9亿元授信额度</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>龙跃</t>
+          <t>曾仁</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,32 +558,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2006-07-06</t>
+          <t>2004/11/09</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>巨轮股份低估的专用装备龙头$$国泰君安证券研究所张锦灿表示，预计未来5年轮胎模具行业将保持10%以上的高速增长，而G巨轮收入也将保持15-20%的增速。预计公司2006-2008年每股收益分别为0.43元、0.67元、0.82元。根据上下游行</t>
+          <t>万科（000002、200002）今日公告，公司与中国农业银行于昨日签署了《银企合作协议》，农行抛向万科提供总金额为46．9亿元的综合授信额度。这是农行有史以来对一家房地产企业提供的最大规模授信，也是万科接受的最大</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltEiugohkkx9yhGgc3tQilrMkYjI6c5iXGDGVD3SKITNveFL83fVp3YSDrXVn4irnowaaeelYEAHEJUmQybJSKuJzQvn_6MxWn6wwp2Imy3Ng==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph244uu0Gl9dhnw-3arFRBZkGwRLa1VFfOhP1OexrsJv7_-xGY7s11jUCXKZjVa5AK9-Dq4Pm49mWPHRRJqV1TTeknzGs1wPZ6Rf56JHG7ggLERDvFAkI11Ft&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>认沽权证仍将继续下行</t>
+          <t>万科招商联手发力环渤海湾</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,32 +593,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2006-07-04</t>
+          <t>2004/10/12</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>随着A股大盘的持续走强，认沽权证面临越来越大的估值压力。昨日交易的16只认沽权证中多达14只下跌，其中上周五上市的钾肥JTP1大跌22.58%。业内人士指出，目前除华菱JTP1外，其余认沽权证的内在价值均为零，可见认沽权证在震荡中逐步回落的趋势仍将持续。</t>
+          <t>宏观调控给地产界带来的新变化，就是强强联合发展模式受到青睐。万科（000002、200002）和招商地产（000024、200024）昨日上午在深圳宣布，两家公司将合作开发天津项目，万科副总经理刘爱明与招商地产副总</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltEiugohkkx9yhGgc3tQilrMkYjI6c5iXGDGVD3SKITNveFL83fVp3YHnqEL6TPvoRouArKd7GZKel2nK_ixFxGd3_JM1FKNSG8oj23C7jm9Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph244uu0Gl9dhnw-3arFRBZkGwRLa1VFfOhP1OexrsJv7_3Le52mhUVMr5oeCbWMqqWF0X-GtfiWJM9HxqHCJC0iDK1FbBth71tof_tfFI8uyVIz5pKWkDHQD&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>权证风险仍将经历一次集中释放</t>
+          <t>华侨城集团增持出新意</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>徐建华</t>
+          <t>贺桥</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,32 +628,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2006-06-30</t>
+          <t>2004/09/30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>连续暴跌的权证市场近几个交易日出现了企稳迹象。昨天市场上26只权证除沪场JTP1停牌外，其余25只权证全部以上涨报收，本周以来认购权证的涨幅大多超过了10%，认沽权证也有幅度不等的上涨。昨日25只权证合计成交了116亿元，自上周四以来首次回复到百亿之上。</t>
+          <t>华侨城集团宣称增持华侨城（000069）流通股，与我国股市上其他非流通股大股东增持流通股都不同，可说是增出了新意。$$华侨城集团的增持目的别出心裁。$$据本报信息数据中心统计，在今年半年</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CrtiBxx-zsgYJ88ROcXVE4PJTgpxFagOebho7t1T3mT7YrTK3s87tgCrlmc9ZgJnYw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph244uu0Gl9dhnw-3arFRBZkGwRLa1VFfOhP1OexrsJv7_2itCNLaY6K1kWD5fnEzZZ0Bf2yGyUSQ-TNHNHhbXPqJno-r-lfEOipMLIdrgo_xIUgbeiOozTMx&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>部分权证投机大限已到</t>
+          <t>万科谋求“有质量增长”</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>高改芳</t>
+          <t>金名</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,32 +663,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2006-06-20</t>
+          <t>2004/09/24</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>“038002，6月13日还有4毛钱，两天之后就已经是0.295了。”中国建银投资证券福州营业部王岩提醒记者。今年8、9月，像宝钢、万科这些权证，有可能一分钱都不值。“最好等到8月以后，权证市场上的泡沫挤掉、权证价格回归理性之后再投资权证。”王岩说。$$</t>
+          <t>“20年对一个公司来说，未来也才刚刚开始。”万科（000002、200002）董事总经理郁亮昨晚在“万科20周年晚宴”上致辞时如是说。他向与会者表示，未来十年万科的中长期发展规划是“有质量增长”，持续领跑房地产行业</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CrtiBxx-zsgYts5NozJLZ5jOh-zRE2ZkucCYnXaQ7JouaDuX6FKV7NSqLvJlPMRBPA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph244uu0Gl9dhnw-3arFRBZkGwRLa1VFfOhP1OexrsJv7_2itCNLaY6K1nVIYmXFLH2CAZdWKXM9MNu0AsbnUoNHC96OxKPT1_YqHHLoDzOjG4seAQZuMXxsZ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>权证 不得不防的三大风险</t>
+          <t>万科“跳水”所为何来</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>徐建华</t>
+          <t>万宁;吴铭;肖莉万科董事会</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,30 +698,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2006-06-13</t>
+          <t>2004/08/30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>伴随大盘的调整，近期多数权证也出现了大幅下跌。但市场人士表示，这并不意味着泡沫已经消除，权证市场的三大风险决定了其价值回归过程仍会继续。$$认沽权证内在价值为零的风险$$认沽类权证集中体现了目前权证市场的风险所在。在目前市场上交易的26只</t>
+          <t>$T素以大盘蓝筹形象示人的万科A股上周五大跌9．11％，换手率2．89％，成交量超过4500万股，万科B股也下跌了4．66％$E$$主持人：万宁$$嘉宾：本报记者吴铭$$</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CrtiBxx-zsgY_4rAwyC8fdDIbqA8grm_RBXSLSfvzTpnCpPjOwuIK4LM4WbLCgA0rQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26VgnFCXayNl16-CctDW1zoXJfsrINxVSy3iL7kwKQCdQ_JL7y0bOQX1RxEkq2Hm40K8EPvvBh1GgfMWJosnr73VRg1upuaoqQJx944mEIqUM8KXNNGtmug&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中国权证市场风险凸现</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>万科  从容应对宏观调控</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>吴铭</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -729,32 +733,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2006-06-13</t>
+          <t>2004-08-10</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>●从最近交易数据以及对比香港权证市场来看，中国权证市场已经累积了太多的风险，具体表现为权证过高溢价水平、交易价格与理论价格偏离较大、理应衰减的时间价值不衰减以及权证与正股关联性弱的特征。$$●从溢价水平来看，最近的权证交易价格反映了投资者对正股股</t>
+          <t>万科（000002、200002）披露的半年度报告显示，尽管国家实施多项针对房地产行业的宏观调控措施，但公司整体业绩依然表现强劲，上半年实现的营业收入及净利润分别为24．69亿和3．15亿元，同比增长12．70％和</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CrtiBxx-zsgYWOjjzfJYQVIMbD5WahTjEXLj6foBKF_rvsJTTn9mkRwUJVW8y_LMkA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26VgnFCXayNl16-CctDW1zoXJfsrINxVSy3iL7kwKQCdQ_JL7y0bOQXpPhKkn-gjcEWZGtDnbJfAHgurTNNHs_CCJ-LunX2j_4STIeDhrvMew==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>认沽权证加速回调</t>
+          <t>地产商陷入围城困局</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>陈雪</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -764,32 +768,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2006-06-06</t>
+          <t>2004/08/07</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>继上周五权证市场全线暴跌之后，昨日多数认购权证在包钢JTB1带动下出现反弹，但认沽权证仍无止跌迹象，股价风险继续释放。沪场JTP1、海尔JTP1、深能JTP1、中集ZYP1四只认沽权证创出历史新低，而</t>
+          <t>$T受宏观调控的影响，地产商们陷入了地荒与银荒的双重危机中，但面对依然节节攀升的房价，地产业的暴利诱惑却又让人难以割舍──$E$$7月26日，老牌地产商深长城（000042）以非同寻常的方式向外界传递了其对土地</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CrtiBxx-zsgY3bJ59_dQwy6T_4LKR7qiykOGHDZDuBVUdrfZOjgVYQ3RoSLh0O-Wkg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26VgnFCXayNl16-CctDW1zoXJfsrINxVSy3iL7kwKQCdQ_JL7y0bOQXycGou8H8K87Of6GP7O94sdwfmTNtsPRAtlh8r9StUGJiFrVvZIwAM5tU4bTpBgjT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>房地产上市公司10强出炉</t>
+          <t>调控激发地产变局</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>曹腾</t>
+          <t>奉周</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -799,34 +803,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2006-06-02</t>
+          <t>2004/07/30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>“2006中国房地产上市公司10强”评选近日揭晓，G万科A、G招商局和G陆家嘴荣膺综合实力前三名。$$此次评选由国务院发展研究中心企业所、清华大学房地产研究所和中国指数研究院三家研究机构共同组建的“中国房地产TOP10研究组”组织策划。产生出“综</t>
+          <t>“每一轮宏观调控都会调到房地产行业头上！”一位地产商无奈地叹息着。自去年6月底央行出台著名的121号文件以来，贷款通则、银监会文件、国务院通知相继出台，整个房地产行业所面临的调控形势越来越严峻，行业内洗牌</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CrtiBxx-zsgYOZbYtvO_-iJKRdfS21wuQ-Psxtba7L_pUzgr8Iqr7PkPUIQoJqrl5Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26VgnFCXayNl16-CctDW1zoXJfsrINxVSy3iL7kwKQCdU-_OPoI79x4hxQE_N_MLYS68EP1l_Pa5O-ZOSd0XwCKLeyikl9lNJrXYbFDcGc34V8td8lafc7g&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>万科董事长王石：调控是利好</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>吴铭;陈雪</t>
-        </is>
-      </c>
+          <t>以“可持续”应对宏观调控</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -834,32 +834,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2006-05-31</t>
+          <t>2004/07/26</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>对于国务院办公厅转发建设部等九部门《关于调整住房供应结构稳定住房价格的意见》，对“国六条”进行细化并提出一系列操作性的政策安排，万科董事长王石昨日在深表示，房地产市场宏观调控对万科是利好。$$户型结构面临调整$$他认为，市场小户型供应将成</t>
+          <t>调控中审视可持续发展力$$中国证券报社副总编辑王坚：弹指一挥间，“中证·亚商中国上市公司发展力论坛”已经走过了六年的历程。六年来，在市场各方的大力支持下，“中证·亚商中国上市公司发展力论坛”“</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CuAjGxUViG5gsFWI2G4Dyf2NEOcQnIcoCL2pXKY9czVhC20iH4KXm8NrzD_iGT1SAg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph260DWpxRoFV66qgxrhy3hlmAIASMU0j2g9jbRfPrYvKCFtNVJoLEkEfbwykCNcim2GaDGFgI_LHueMT-0cnac5Ci9UPTSsS-hkegXYG8j-6Oog-hHroQpMY&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G万科股权激励获股东大会批准</t>
+          <t>房地产上市公司再融资热情升温</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吴铭;陈雪</t>
+          <t>张德斌</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,30 +869,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2006-05-31</t>
+          <t>2004-07-21</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>G万科（000002、200002）修订后的首期（2006－2008年）限制性股票激励计划昨日获得了股东大会的批准。$$昨日到会的G万科股东共持股13.28亿股，包括近1.2亿B股。统计结果显示，99.61%的股份投了赞成票，无反对票，仅0.39</t>
+          <t>继万科（000002、200002）、金融街（000402）和宝丽华（000690）之后，招商地产（000024、200024）今日披露再融资计划。房地产类上市公司再融资陡然升温，呈现出一派“热闹”景象。$$</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CuAjGxUViG5gRzLb4evGY3v0deGnKvpwejhjMf3jWPKiplnR3HtrtW1qQXPUvEkuJg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph260DWpxRoFV66qgxrhy3hlmAIASMU0j2g9jbRfPrYvKCFtNVJoLEkEfUsTCVQqhlfR2I-_mqvEC52V7QRUOtiLVFzXDZj3pTbke7LUexOLzMA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>提供市价申报 丰富交易手段</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>万科“常青”的奥秘</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>吴铭</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -900,32 +904,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2006-05-17</t>
+          <t>2004/07/15</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>问：什么是市价申报方式？$$答：市价申报方式是指投资者委托会员按当时市场价格买卖证券的交易指令申报方式，又称为未指定价格申报。市价申报可以有多种实现形式，按申报的执行价格，可分为“完全市价”、“对手方最优价格”以及“本方最优价格”等形式；按委托执</t>
+          <t>$T零距离接触50强重点公司（－）$E$$$F编者按：$E$T由本报和亚商企业咨询股份有限公司共同主办的第六届“中证·亚商中国上市公司最具发展力50强”评选已于日前揭晓，第六届“中证·亚商中国上市公司发展力</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplu7JIM36isRPD-CESSpIobgbeKBi95B21GFbXPTejQ5CuAjGxUViG5g9m-L9nwIlseEzrnvbc6FsiEWSEE3s9MHpFDeY6BOXccB4o6ttwjR5A==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph260DWpxRoFV66qgxrhy3hlmAIASMU0j2g9jbRfPrYvKCFtNVJoLEkEfA7Irllh7P3OHDfZdQHK1xZYVpHaYCtwfVnjHv82i7QojI2Faf3r4Hsg3CG2BrmfA&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G药玻两激励基金方案斗法</t>
+          <t>民生银行半年报业绩预增</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>陈静</t>
+          <t>张纳</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -935,27 +939,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2006-05-09</t>
+          <t>2004/07/05</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>在G药玻（600529）日前召开的股东大会上，公司董事会提交的提取公司激励基金议案被否决，但公司第一大股东沂源县公有资产管理委员会提出的激励基金议案则顺利通过。在3月29日召开的公司董事会上，G药玻董事会表决通过了《激励基金管理办法》。该办法规定</t>
+          <t>多家公司发布上半年业绩预告。万科（000002、200002）、金地集团（600383）、重庆港九（600279）、民生银行（600016）预增，恒生电子（600570）、联通国脉（000640）、天宸股份（600620）</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVep3_cjGgPAo6qWLBXcyrZs9rVTV-jA89F6V8EIir0mMRN2IvbaLRZspB1VyHhHj0WOw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph260DWpxRoFV66qgxrhy3hlmAIASMU0j2g9jbRfPrYvKCFtNVJoLEkEfZPbOdZ9Fe_Y2Hpuc2h0KB3tkBZ8GvjFhohje0TNt7EWz_5p8h_GGhdfgQ4KKU0yg&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>加息加速房地产业整合</t>
+          <t>万科项目融资左右逢源</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -970,32 +974,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2006-05-08</t>
+          <t>2004-07-05</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>万科总经理郁亮日前表示，利率调整对购房者支出、市场需求和房价的影响还在其次，更重要的是进一步显现了加息周期的环境特性，因此融资能力将变得更为重要，行业整合将加速，房地产业集中度将会进一步提高。业内人士认为，目前在房地产行业，三项核心资源即土地、资</t>
+          <t>万科（000002、200002）今日公告称，根据董事会决议，该公司已与HypoRealEstateBankInternational（简称HI公司）签订了合作协议，为即将开发的中山项目进行境外融资安排，融资</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVep3_cjGgPAo6q8CvhdfHUnZF16HuwpNWa-vr-3QWyeOfkkJPTaVNbxdJ53LFQ1W6Anw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Sshi0g8YGbO1z5R600JNTxobL5BrFWsijcQ8mDngUDmTcEq6W6UOcvbuM0G8xxBzVPbu_81uKbX6PJirHlOX16aaLDXEC5aimNv3CJWiVRA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>万科股权激励计划获证监会批复</t>
+          <t>第六届“中证·亚商50强”评选揭晓</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>万宁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1005,27 +1009,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2006-04-28</t>
+          <t>2004-06-07</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>万科（000002、200002）今日公告了修订后的首期（06－08年）限制性股票激励计划，该计划目前已得到中国证监会的无异议回复。这是中国证监会发布《上市公司股权激励管理办法》以来，主板上市公司首份获得监管部门批准的股权激励方案。万科亦定于5月</t>
+          <t>由本报和亚商企业咨询股份有限公司共同主办的第六届“中证·亚商中国最具发展力上市公司50强”评选活动日前圆满结束。上届第九名的万科A以其良好的成长性和显著的品牌优势，跃居本届50强榜首，华能国际蝉联第二，而</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVep7boPsjPvpTIpYg8cMRpZ4jKGnly5J-4z5Qt9L__10TMHW2ISxsFJjcoXKfey2nANA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Sshi0g8YGbO1z5R600JNTxobL5BrFWsijcQ8mDngUDhQwsN_nhcf7sN9100WMNn1YZbrhPyY-2wMBwSUkIWxzMJMi5sGTPAXydrPR7SKtcQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>社会责任 中国企业绕不过去的河</t>
+          <t>郁亮：要学会适应新规则</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1040,32 +1044,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2006-04-25</t>
+          <t>2004-05-27</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>“电信服务没有道理维持高价格。”杨培芳是信息产业部电信研究院的副总工程师，他日前在深圳3G亚洲峰会上对电信业高价格进行抨击，是基于电信网络边际成本趋于零的事实。“中移动比中国联通的用户数量仅多三分之一，但利润是其十倍，原因就在这里。”杨培芳进而表</t>
+          <t>$T郁亮：男，1965年出生，1990年加入万科，1994年至今出任万科董事，1996年出任万科副总经理，1999年出任万科常务副总经理兼财务负责人，2001年出任万科总经理。$E$$当前我国住宅</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVep7boPsjPvpTI2zSHDUcbbeZBeEldlV5HwE3A1PMLpXor4wZ5hdzm6Ar_wtzBRuXqjA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Sshi0g8YGbO1z5R600JNTxobL5BrFWsijcQ8mDngUDpx7x5XJcjgrasZ1PXpIeELLpn5xyKheOgWUfy0Yn9h26J6T67qrDfY16JWa4r-Hug==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>今年构建新的管理架构</t>
+          <t>万科转债绝大部分成功转股</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>陈雪;吴铭</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1075,32 +1079,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2006-03-22</t>
+          <t>2004-04-30</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>万科(000002)总经理郁亮表示，今年万科要建立新的管理架构。他是在昨日万科2005年业绩发布媒体见面会上作此番表述的。$$据悉，万科现有的管理平台形成于2000年，强调的是专业化总部。但万科预计3年后其三大业务区域的各自规模都将与现在的集团规</t>
+          <t>万科（000002）公告称，在公司对未转股的万科转债进行全部赎回后，万科转债（125002）今日起在深圳证券交易所被摘牌。$$5年期15亿元万科转债于2002年6月13日公开发行，2002年6月28日在深交</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVepzFxdMSliAmNFY84Lvd5nhXmaqpAZwF2bOA8UJuABrX5VfF7pz3yhiL4N4wPQr76BQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Sshi0g8YGbO1z5R600JNTxobL5BrFWsijcQ8mDngUDk7dPA650s_JSc-1lS8rcaCV7JTZ5PoW-0M-t-Spap8neITJ_KfO2tXUfxh52vYYvg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>G万科 动态估值仍具吸引力</t>
+          <t>万科首季净利润超亿元</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>龙跃</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1110,32 +1114,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2006-03-22</t>
+          <t>2004/04/19</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>在迪斯尼题材刺激下，地产板块近期持续活跃。在良好的市场氛围下，作为地产股的龙头品种，G万科最近也表现强劲。但业内人士指出，万科的走强与目前部分二线地产股（尤其是上海本地地产股）的活跃，有着本质的区别。$$后者的活跃在于朦胧题材的刺激，而前者的走强</t>
+          <t>万科（000002）今年一季度报告显示，受益于结算项目的毛利率增长以及结算面积和结算收入的相对增加，1～3月公司实现主营业务收入10．3亿元，净利润1．049亿元，结算面积17．5万平方米，分别比去年同期</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVepzFxdMSliAmNndCG4wnwoam6aJAEm6INEIpzSIkr_jH8laM43v3jFdqnfCJyb7siLw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24rKc_wALtSs66xmkmZ9CmkqafE61K7K79o8GM9eIf_pX4kg4_vNxTCMM3yQ_xsnYM8HxAOLkLEWW1pQnDAFNs1cvX_draY7tua4TJUQlGSWYb0yyuzl-hV&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>转债市场缩水近半</t>
+          <t>房地产将进入黄金发展期</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黄宪奇</t>
+          <t>陈赋斌</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1145,27 +1149,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2006-03-03</t>
+          <t>2004/04/10</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>随着含转债上市公司股改进程的密集出炉，股改所带来的转债市场萎缩愈加显著。万科转2现已进入赎回程序，而雅戈转债即将到期，另外还有几只转债存在回售和赎回可能；转债市场近期的存量将不足1.5亿张，相对于股改初期的3亿张，已缩水过半。$$近期，转债市场</t>
+          <t>在昨天上午举行的“中证·天相上市公司说明会”上，万科总经理郁亮表示，万科2003年业绩体现了效益型的增长，展望未来20年，中国进入房地产业发展的黄金时期，公司将专注于进一步提高企业的利润率水平，以股东的长</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVepzFxdMSliAmNzJUTebq-TmK4lNHpa2mXBMqo9TGzW9wREgWvZCiWgK7vVztVvlCvIQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24rKc_wALtSs66xmkmZ9CmkqafE61K7K79o8GM9eIf_pX4kg4_vNxTC3RGRkEktzxs_p99m4PGpd5J5zLeDHfhSUY4XiXzmLn6BmauSXCE23sfzUvq_PErN&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>万科北京朝万中心成立</t>
+          <t>万科战略布局长三角</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1180,27 +1184,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2006-03-02</t>
+          <t>2004-03-29</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>万科(000002、200002)受让60%股权的北京市朝万房地产开发中心昨日在京举行揭牌仪式。该公司的成立被认为是万科新一轮变革的开始，由此，资源整合将唱重头戏。$$据介绍，朝万中心系北京市朝阳城市建设综合开发公司通过存续分立方式新设的全民所有</t>
+          <t>万科（000002、200002）今日公告称，公司已进入昆山、无锡房地产市场，标志着万科在长三角区域的战略布局大幕正式开启。这也是万科继2003年基本完成珠三角区域战略布局后，在区域集约化扩张方面的又一次重大战略举</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVepzFxdMSliAmN_fiWcZgkJXgVH4GoOY77gPwCV8aTlkkt6Zj1hjOO3AugeCVYruBO6g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24rKc_wALtSs66xmkmZ9CmkqafE61K7K79o8GM9eIf_pQqtWfjMzrVU7vQJkcqSGqMq-grrJDM7so4Up-WxmCIuLAE0ELVgQ5yAn62MURpw5w==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>万科将行使“万科转2”赎回权</t>
+          <t>未来十年强调“精耕细作”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1215,30 +1219,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2006-02-22</t>
+          <t>2004/03/11</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>G万科(000002、200002、126002)今日公告称，“万科转2”赎回日为2006年4月7日，公司将赎回在赎回日之前未转股的全部“万科转2”。$$赎回价格为按面值加当年利息(即101.375元/张，当年利息含税，个人和基金持有的“万科转2</t>
+          <t>万科（000002、200002）董事长王石昨日在出席万科2003年业绩发布暨发展战略说明会（广州专场）时认为，过去20年在经历多元化、专业化之后，万科未来第三个10年将以精细化为特征，万科将在国内房地产业由粗放型</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVep2wxOWd-xkgmVRLfNrqYSGMxiXtG5CfJI8EnFTkcPBnF3_Zg3deCgVm6z30Y_dh3hQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24rKc_wALtSs66xmkmZ9CmkqafE61K7K79o8GM9eIf_pQqtWfjMzrVUVeuODu6nYK18No9WX3aXs9_rrB0-mP8Oi6jX8plCgMSWs2pbkDm3t2_2XMZekSa2&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>■投资评级简报</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>万科新增土地储备</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>吴育平</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1246,34 +1254,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2006-02-06</t>
+          <t>2004-02-09</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>G长园隐性资产提升价值$$东方证券研究所陈玉辉指出，长园新材是国内热缩材料和辐射加工领域的龙头企业，随着国内产业结构升级，热缩材料的主要应用领域，如电子和电器行业，将成为增速最高的领域之一，公司有望在下游需求拉动下进入新一轮高成长期。维持“增持</t>
+          <t>万科A（000002）日前公告称，全资附属公司深圳万科分别于1月15日及2月16日以1．86亿元和1．2亿元的价格获得面积108，142平方米的深圳坂田南片区威宏地块及规划建筑面积185，263平方米的东莞寮步镇2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltlWEuU3kSJDM3XeUSA4GbJcGfMsfohFagH8jIkKUVep2wxOWd-xkgmMvrX4uI_vqHvVC0KwUtaGjzPQeCTI9x0Ay9UawCXldhFmIvdd6-_QA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KzoUuTXK6jRqUcyfLXWHfbm9NgCKADagFQK77USEk2Z9c-TNTK_twfgvgYWuT0bw6sO5jPTaMRLrrH7IWN2mPlTl5zc0CLOsszvqn7-j2yA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>中兴万科 基金重仓股龙头再舞</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>易非</t>
-        </is>
-      </c>
+          <t>万科修订可转债发行方案</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1281,34 +1285,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2006-01-25</t>
+          <t>2003-09-27</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>谁是基金最重仓的股票？谁是基金加仓最坚决的股票？谁被基金最果断的从前二十大重仓股中剔除？通过天相对基金2005年四季度报告的重仓股数据统计，我们发现了基金经理们投资的“至爱”与他们抛售股票的代表。$$88只基金重仓G中兴$$根据天相的统计</t>
+          <t>本报讯万科(000002、125002、200002)今日公告，公司董事会同意对可转债发行方案进行修订，发行规模拟为19.9亿元，募集资金投向项目以及部分项目投入的募集资金金额相应减少，并决定延期召开股东大会。$$万科公告称，在刊出可转债发行方案后，公</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVS3OGdsKqKLdsxMgMHSgvbGcPljjYzdQnzFR8pJHuOetC5PpmdX865ljTT1C-aiT7g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KzoUuTXK6jRqUcyfLXWHfbm9NgCKADagFQK77USEk2RKfmI6S1mmLUkOQyCekCfmj-o3Flf3vuk9Pb7Qi78vuJW4pWQdmkM7buO8iZWl3qA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>万科3.9亿并购朝万房产</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>吴铭</t>
-        </is>
-      </c>
+          <t>万科拟再发可转债</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1316,34 +1316,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2006-01-19</t>
+          <t>2003/09/09</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>G万科(000002、200002、126002)在北京房地产市场又有新突破。公司今日公告称，北京市朝阳区国资委与公司于1月18日签署协议，将所持有的北京市朝万房地产开发中心的60%国有产权以及与该等产权相对应的股东权益转让予万科，转让价格为38900.</t>
+          <t>本报深圳电万科（000002、200002）董事会今日公告称，公司拟再次申请发行可转换公司债券。该公司曾于2002年6月发行了15亿元可转债。$$该公司董事会表示，本次拟发行可转债规模为发行前一年末公司经审计的净资产额的75%扣减发行当时“万科转债”</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVS3OGdsKqKLdBXzBdklTSsAuUe5gNWcimZMCXayJbdNUA9m4ZFmPqkxf8zZjZNL0LA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KzoUuTXK6jRqUcyfLXWHfbm9NgCKADagFQK77USEk2RKfmI6S1mmLSGbi8AX2R16yX1su1G1_RQ-G3pKpDruX29pkmJc-8bivfQqhra4SAFpa5ME2z4m1&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>短期整理不改向上趋势</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>徐海洋</t>
-        </is>
-      </c>
+          <t>后市有望振荡上行</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1351,34 +1347,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2006-01-12</t>
+          <t>2003/08/22</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2006年的第一根阴线暂缓了行情上行的脚步。虽然元旦后的强势“五连阳”已经有效激活了市场热情，但指数在1223.56点前期高点触电般回落的走势，也唤起了投资者警觉的神经，毕竟，五年熊市的影响难以短期内消除。$$本质:价值重估掀动行情$$</t>
+          <t>昨日，尽管大盘走势相对较弱，但深圳本地地产股表现抢眼。*ST星源尽管公布了亏损的半年报，但依然封住涨停，ST深物业、深宝恒A、深深房A、深振业A等也涨幅居前。如果说8月初对于深圳本地股还只能以短线思路对待的话，那么现在看来似乎更可能演变为中线投资品种，其</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVS3OGdsKqKLdMv6a3AQEc1zgTIZCtsKdctYwVJafC2NWN7BfCT46cLPogbW2kTMvwg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25qrqwyDQjKdm1ZEAGvSDEXFMz2Crvmr9SS9s0uq-BEBZEoMj2_Cedzwj8DsRtfgSDKMze7Rqm1_4-sYxtEfCeaMOD02opnLG4FIiJgXnCTUarITpl6yIVj&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>万科借力境外资本推进战略调整</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>吴铭</t>
-        </is>
-      </c>
+          <t>与王石面对面</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1386,34 +1378,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2005-12-20</t>
+          <t>2003/08/12</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>万科(000002、200002)今日公告称，决定将全资附属公司永达中国投资有限公司持有的沈阳万科永达房地产开发有限公司83%股权中的51%股权，及上海万科房地产集团有限公司持有的无锡万科房地产有限公司40%</t>
+          <t>●争论房地产有没有泡沫不能说明问题，考虑如何解决问题才是重要的。$$●121号文件出台不会导致房地产的冬天，也不会使房地产企业死掉一半。$$●中国房地产业有十年二十年的持续发展潜力，但肯定不是直线的增长，会有波浪和局部的调整●万科业务的增长速度起</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVU4AUI9P31L5Ti-IK40srkmAYymfzShYAVeq84-31maXx3IdsCyrxQ-q2oUJXPam_g==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25qrqwyDQjKdm1ZEAGvSDEXFMz2Crvmr9SS9s0uq-BEBZEoMj2_Cedz9LYgC8isk8Dbyj6g3WCAD2ELJIpG7GegwQaaxHkc7-0h-5UsEwDy20Y3LjyEFO7Q&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>地产大佬忙“圈地”</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>吴铭</t>
-        </is>
-      </c>
+          <t>万科半年净利润增长逾四成</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1421,34 +1409,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2005/12/09</t>
+          <t>2003/07/29</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>在宏观调控背景下，许多地区的房地产市场陷入低谷期，然而一些大型地产上市公司却加紧在重点区域“跑马圈地”。$$从大型房地产上市公司披露的信息看，当前新增土地储备主要集中于珠三角、长三角和环渤海经济圈这三大区域，其中以北京为中心的环渤海经济圈最受追捧</t>
+          <t>本报深圳电万科（000002、200002）今日公布的2003年半年度报告显示，报告期内尽管受到“非典”疫情及央行收紧房贷通知的影响，公司的营业收入及净利润均较去年同期增长了四成多，毛利率达24%，中期实现每股收益0.15元。$$半年度报告显示，万科</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVU4AUI9P31L5R3H7zhykx9HaV7sOfSTcDcR6TpAfWOWpjFaSSFBhNeSZz3XizBwt_g_czbsaJPgD&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25qrqwyDQjKdm1ZEAGvSDEXFMz2Crvmr9SS9s0uq-BEBWhO9adSx3wg6xusfza1o2Ygjg6LGuwOUrxIzN5YpN9m-Jb7eNlUIGTFgUOXWa5KcZLIqBE1PTs_&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>深市权证开始降温</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>李宇</t>
-        </is>
-      </c>
+          <t>房地产板块：阴影下的投资视角</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1456,32 +1440,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2005/12/08</t>
+          <t>2003/07/07</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>昨日，深市权证已脱离上市初期的火爆走势，无一只涨停。权证走势逐渐降温，两市6只权证仅有两只收阳，另外4只全线回落。$$昨日鞍钢权证打开涨停板，以2.350元开盘，收于2.365元，上涨10.82%；钢钒权证开盘2.278元，收于2.054元，下跌</t>
+          <t>投资视点$$编者按：今年6月13日，中国人民银行颁布了《关于进一步加强房地产信贷业务管理的通知》。房地产信贷政策的收紧，对房地产开发公司的冲击是不言而喻的。该通知颁布后的三个星期内，房地产板块整体下调7.7%，远高于上证综指同期4%的跌幅，而有房地产</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVU4AUI9P31L5bjIxmsnRqE83Le8VmkbjF7eIjDUeVzb-hQbqMF8aroQbtOQme9EJbiWOupp_uZmG&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25qrqwyDQjKdm1ZEAGvSDEXFMz2Crvmr9SS9s0uq-BEBWhO9adSx3wgedVSU1vKOarDZX31F-4zm44xaNZRdGAHXRnCcuc7TjtbjTrYr_sBc-sJuOM030N3&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>频繁短线交易导致巨额成交</t>
+          <t>万科9.7亿元拿下“地王”</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>吴铭</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1491,32 +1475,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2005/12/07</t>
+          <t>2003/07/05</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>小小的权证已经反客为主。昨日6只权证累计成交101.8亿元，高出全部A股总成交额(78.91亿元)29%。这是自8月22日第一只权证宝钢权证上市以来，权证成交额首次超越两市A股。面对疯狂的权证市场，持有权证的主流机构投资者纷纷选择获利离场。$$鞍</t>
+          <t>本报深圳电（记者吴铭）昨日下午，今年深圳市最大一宗政府出让商住用地、被誉为“板雪岗地王”的龙岗区板雪岗出让地块公开拍卖，经过80余轮的激烈角逐，持98号牌的万科（000002、200002）最终以9.7亿元人民币竞买成功。$$据了解，该宗土地总面积3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVU4AUI9P31L5q0gXExipU1-v0ak3JI4C5gb-N5jR2wb1o9EN8MmfksO4TgUxu1SFU3yMY7m9lriE&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25qrqwyDQjKdm1ZEAGvSDEXFMz2Crvmr9SS9s0uq-BEBWhO9adSx3wg5YQDCDdRYr82S8fIXV2bu2trfx6KHBqQHUxcUnk3lb2YKuz-3JNHqM5bkhURFEjs&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>大盘冰封权证虚火正旺</t>
+          <t>规范有利于稳健增长</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>张翔</t>
+          <t>储兴华;张宇国泰君安</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1526,32 +1510,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2005/12/06</t>
+          <t>2003/05/26</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>一如市场人士所料，权证炒作的疯狂气氛由沪市蔓延到了深市。昨日在深交所上市的三只权证全日封于涨停板，其中鞍钢认购权证及钢钒认沽权证较低的换手率表明其后市表现仍被投资者看好。沪市的三只权证昨日也遥相呼应纷纷上扬，特别是武钢认购权证大涨22.36%，暗示着游资</t>
+          <t>房改、鼓励消费信贷、房地产企业上市，三大利好引爆房市行情$$笔者：自2000年以来，全国房地产市场持续火爆，在当年GDP增幅中占的比重也在加大。您认为是什么因素引爆了现在这轮房市行情？$</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVU4AUI9P31L5Nl-mWDIpwm0PNldjvqjBlIQ0gdomefG0uMAfLqB9FOC-xtS2n6Yy_18zEO_tnkxv&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27DF843Fqv0ta66_92FltpGXcCgjpGgrO-Kk5bkKZtneDrIOWx9eWev1mjqndQtqhgAdU3rX0mc7Ya7q-F8DMU5jzksKTqdKqogAYl0ymd3dBhOZWbnrJ27&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>深市权证开局三大看点</t>
+          <t>专业化调整显成效</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>李宇</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1561,32 +1545,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2005/12/05</t>
+          <t>2003/03/20</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>今日上午九点，钢钒PGP1、万科HRP1、鞍钢JTC1集中上市仪式将在深交所三楼大厅举行，深市权证市场由此拉开大幕。三只权证的发行规模分别为2.33亿份、21.4亿份和1.13亿份，总量达到24.86亿份，接近沪市目前权证总量30亿份的规模。$$</t>
+          <t>万科（000002）2002年度年报显示，公司房地产结算面积、结算收入以及结算净利润分别达112万平方米、44.2亿元和3.82亿元，同比分别增长62％、32％和69％。上述指标说明该公司继2001年在成功剥离零售业务后，多年的业务专业化内部调整已经完成</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls2Q-VGs4rCwvJ6woGSEhe_mTC75hvCKDCDA43kJk2HVU4AUI9P31L5tk_ZOcVxzIPxnLj90DycFSGYO2mhmFYNlKCBpG89H2bawU3g7WPBUpHMdHJvnurx&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27DF843Fqv0ta66_92FltpGXcCgjpGgrO-Kk5bkKZtneAAccGvsyw6hW-p3-1DJz1hIs4-noanXwrrRSjd9criIlAaQe17yK8ZGYyX3gfiXDe3bwzPtIc5R&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>权证对价再显市场魅力</t>
+          <t>深万科进军广州房地产市场</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>熊永红</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1596,32 +1580,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2005/12/03</t>
+          <t>2002-12-09</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>昨日，G鞍钢、G万科A实施股改对价安排后首日复牌交易，二级市场股价实际涨幅分别达到14.76%、6.7%，成交量分别达到1.6638亿股、1.0539亿股，成交金额分别达到6.8553亿元、4.0241亿元，良好的市场表现表明，它们包含权证的对价安排在继</t>
+          <t>本报深圳电（记者沈阳）记者日前从深万科（000002）获悉，公司已成功竞得南海黄岐区泌冲岗地块国有土地使用权。项目的最终落定，拉开了万科进军广州的序幕。$$据了解，黄岐地块紧邻广州商业中心区，占地面积657亩，区位优势明显。在项目的规划设计上，万科拟</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCRx3ckOaMHSr2ng1VWnq96FVtyH1V8XdQBOMgcz3BSQjF1sCyRAfVOmDx3Nv2AprADl-qjHvntX_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27DF843Fqv0ta66_92FltpGXcCgjpGgrO-Kk5bkKZtneP9MgZTKDTl7Jpl4M9K75tz9HA-YkmKD2qc4_habekxtqHoCp20G61oOKarOfrQCDA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>深市三权证均存在创设扩容风险</t>
+          <t>走“阳光”治理之路</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>熊永红</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1631,32 +1615,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2005/12/02</t>
+          <t>2002-10-28</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>新钢钒、万科和鞍钢新轧三家公司股改中派发的权证——钢钒PGP1、万科HRP1、鞍钢JTC1，将于12月5日(下周一)在深交所上市交易。从这三只权证的上市公告书中可知，这三只权证均存在权证创设带来的扩容风险。$$攀枝花钢铁有限责任公司在其认沽权证上</t>
+          <t>成立于1984年5月的深万科，以房地产为核心业务，是中国大陆首批公开上市的企业之一。至2001年底，公司总资产64.83亿元，净资产31.24亿元，拥有员工5349名，全资及关联公司43家。公司于2000及2001年两度分别入选世界权威财经杂志《福布斯》</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCRx3ckOaMHSrkwDPiXETgmt6VXj6H7pZbMDkWK5tfJSESTBhS7bXRr7nySmhzL4rLPYF8EvY3PPb&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27DF843Fqv0ta66_92FltpGXcCgjpGgrO-Kk5bkKZtneEdnH4Y7J1Nvnas4HJvPxsBJeoOfhUw1fEnYDvTdU7PWKS4NpPjjEQzD5xfTuHpA4ILvDDmtl_8P&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>购并或将成为行情主线索</t>
+          <t>万科收入效应下半年显现</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>徐国杰</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1666,32 +1650,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2005/11/24</t>
+          <t>2002-08-22</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>虽然市场不见起色，冲高后阴跌不止，新能源和军工概念的暂时退却让市场仅存的局部投资主题也消失了，但有基金指出，在将实现全流通背景下，收购兼并所体现出的企业价值已成为目前市场行情的线索之一，在不远的将来，很有可能成为市场投资的主要线索之一。$$购并政</t>
+          <t>本报深圳电（记者沈阳）万科（000002、200002）在2002年上半年实现了60万平方米的销售及预售面积，较去年同期增长41％的情况下，营业收入和净利润同比分别下降38％和16.6％。该公司董事长王石表示，业绩下调主要是受制于对销售回款的确认，万科今</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCddrzsREau3eYJdyqGXo9gtm-7jug_hm1PGawZkSDkw9iVRQFF8Ib4IY7fUvxNZA2vwwjDgc7Mbl&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Dva9DZWadzmo6MVDMx-Jd__LTRGNxcpS1MoINl4mNCMnX1Ou4KcGUBDXQDOAmRDDb8IkbchJLzEpKVz-n4RW-745n6AZkry-Qwdooti6lx3JV-dclrdhJ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>首家含B股公司股改方案过关</t>
+          <t>智慧的碰撞</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>储兴华</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1701,32 +1685,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2005-11-16</t>
+          <t>2002-07-08</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>作为首家含B股股改公司，万科股权分置改革方案昨日获得现场相关股东会议参会股东100%的支持，综合参与网络投票的股份，以投票总股份17.1627亿股计，赞成率高达95.95%，其中12.8亿多股流通A股的赞成率亦高达94.66%。$$尽管部分与会股</t>
+          <t>历时两天的“中证·亚商中国上市公司发展潜力论坛”闭幕了。围绕着入世之后中国企业管理与战略转型，与会人士坦诚交流所迸发的思想火花，必将照射到企业今后运作，有助于提升企业的核心竞争力和可持续发展能力。$$钱跟钱不一样$$钱的来路不同，作用大小不一样。</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCddrzsREau3epKEwFMj_-CI6MgoYzgOE_1zsYvYu90MPh6OrfZ1iSsOJw9XlVGzpJA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Dva9DZWadzmo6MVDMx-Jd__LTRGNxcpS1MoINl4mNCCcr9m9ah-ivGF6gUF8B9f4LngboXfH6of0JHOa9lOVV74kbyH_KMJ0p7UrS6solr0YOF08gyxiT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>扶持龙头优质公司做大做强</t>
+          <t>是画饼充饥  还是雪中送炭</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>夏丽华</t>
+          <t>刘向东;沈昀</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1736,32 +1720,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2005/11/08</t>
+          <t>2002-03-25</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>证监会昨日召集12家上市公司负责人召开了上市公司贯彻落实《关于提高上市公司质量的意见》座谈会。与会人士提出，提高公司运营透明度不仅要对外透明，还要对内透明，要提高资金筹集效率、改善再融资政策，尽快推出股权激励的具体政策和操作细则，扶持行业的龙头优质上市公</t>
+          <t>2001年1月，我国第一个“公司董事及高级职员责任保险”推出，这个被有关人士称为“保险绳”的新险种，上市公司的接受程度如何？其中又有哪些问题？为此，本报记者对凯迪电力股份、华新水泥等二十余家上市公司就相关情</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCddrzsREau3esz6GV5_9uSAOPOqj_XgTVRG-BFVp_KqTA1umbbUKGs-7wuXi5veD927j-c1PAnmm&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Dva9DZWadzmo6MVDMx-Jd__LTRGNxcpS1MoINl4mNCKdog6OgZK4PfEl6FxtkcbDy_QCYs-_exdDWtRfKanNPbmADQtkHLlWdfCyrGf-ElQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>近三周5亿万科转债选择转股</t>
+          <t>厉兵秣马为来年</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>何凌枫</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1771,32 +1755,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2005/11/02</t>
+          <t>2002-03-18</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>万科日前公布的三季报显示，在10月10日公布股改方案后的近三周时间里，万科转债转股速度明显加快，目前已有近5亿元转债实施转股，显示调整后的股改方案获得市场普遍认同。$$万科于去年9月24日发行19.9亿元可转换公司债券，即“万科转2”，今年3月2</t>
+          <t>万科A（000002）2001年报“看上去很美”，净利润37375万元，每股收益高达0．592元，较上年双双增长26％。公司在经营上的调整也基本结束，先后转让了万科精品公司及所持万佳百货72％的股权，成为纯</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCddrzsREau3e7H7_ACtnFjXpLP2rf5-vjxgQY7KZ8Y_6soDlBzUyCHXlJ6gtJyTseGrO25fOIqmc&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Dva9DZWadzmo6MVDMx-Jd__LTRGNxcpS1MoINl4mNCKdog6OgZK4PUV8ZYlOmD8wkEKvf_NDXhbYuUyLNH4zJeYA4pAWfwbTBDkQ2q1YNZQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>万科三季度实现预定增长</t>
+          <t>王石宣布  万科步入高速增长期</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>何凌枫</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1806,34 +1790,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2005/10/31</t>
+          <t>2002-03-16</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>万科今日公布的三季报显示，公司第三季度共实现销售收入35.9亿元，营业收入12.2亿元，净利润7674.1万元，结算面积19.8万平方米，分别比去年同期增长58.6%、21.5%、9.1%和4.8%。值得注意的是，在公司10月10日公布股改方案后的近三周</t>
+          <t>本报深圳电（记者何凌枫）万科（000002）董事长王石在昨日召开的业绩发布会上表示，经过去年的大规模扩张，公司将从今年起开始高速发展。$$据介绍，去年万科转让</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCVlg80SZa2gRzKw1V04WDzqds3fq56ol6YqzbphJS1fNNLYBxbyycPgiEl4uUSLmRv_zRQdmwqqN&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph274DP_97CZ-c8OITgw2iXW7j5kv6G96iSu9_lSJQf_NUZayAQs9mMUjE7SeCnT8Txtg_M6ro4g57N0fHt3C6uKZErm2-N5ho3568ArOL3QzMqESkFb4WaDo&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>投资评级简报</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>燕云</t>
-        </is>
-      </c>
+          <t>万科企业股份有限公司第十二届董事会第八次会议决议公告</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1841,34 +1821,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2005/10/20</t>
+          <t>2002-03-15</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>同仁堂一年期目标位23.3－26.8元$$中金公司孙雅娜预计在目前股价水平上，考虑10送2.2的对价，公司2005、2006年的市盈率水平分别为23.9倍和19.7倍(预计2005、2006年的每股收益分别为0.70元和0.85元，分别同比增长6</t>
+          <t>$T证券代码：000002、200002证券简称：万科A、万科B公告编号：〈万〉2002－003$E$$$T本公司及董事会全体成员保证公告内容的真实、准确和完整，对公告的虚假记载、误导性陈述或者重大遗漏负连带责任。$</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCVlg80SZa2gRFvWqg48CnJNszUyGFdsXOGMrJ9W4Gp5Xryl-gxMYQEGlbV57jf6uCPoat5-D0YHP&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph274DP_97CZ-c8OITgw2iXW7j5kv6G96iSu9_lSJQf_NUZayAQs9mMUjR6pbzapBL4nFkC0PUFl-nkP1ZCz-O82rXGmna88mcW4v4U5MRTPjhGK0A-jtCo2w&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>蓝筹“寻宝”的机会来了</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>易非</t>
-        </is>
-      </c>
+          <t>万科企业股份有限公司第四届监事会第七次会议决议公告</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1876,32 +1852,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2005/10/19</t>
+          <t>2002-03-15</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>“一些蓝筹近期的急跌也许给市场提供了一个极好的买入机会。”某私募基金人士有些欣喜地表示。在他的眼里，过去几乎处于天价、被基金拿得死死的很多蓝筹股，终于向市场打开了投资的大门。$$蓝筹股近来的灰头土脸，宏观经济对市场整体影响中性偏空是一个重要原因。</t>
+          <t>$T证券代码：000002、200002证券简称：万科A、万科B公告编号：〈万〉2002－004$E$$万科企业股份有限公司第四届监事会第七次会议于2001年3月12日在万科总部召开。应到监事3人，实到监事3人，会议</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCVlg80SZa2gRw-Jz9Wsy_DYlpWK_CXq6mRTAaP_vQNDPD3n1DX6_8hZe3L2e5ZPOf2UITA08HLl8&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph274DP_97CZ-c8OITgw2iXW7j5kv6G96iSu9_lSJQf_NUZayAQs9mMUj4KiYAcq9fpeuB4Kzov1c8p140mhgXnZc-OSsgQRcLjlr16QlaniosCOuZLcW90h4&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>万科做深做透认沽权证</t>
+          <t>新华远提前亮相  任志强重出江湖</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>孟坚</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1911,32 +1887,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2005-10-19</t>
+          <t>2001-11-22</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>万科(000002)今日公告称，经过与流通A股股东充分沟通，大股东华润股份有限公司提议对股权分置改革方案的部分内容进行调整，将认沽权证的行权价格由3.59元/份调整至3.73元/份，将认沽权证的数量由每10股A股派送7份调整至8份。$$万科股改方</t>
+          <t>曾作为北京房地产市场中销售额排名第一的华远地产公司，前一时期因与其控股公司──华润集团闹分家而偃旗息鼓了一段时间后，日前举行新闻发布，称新华远公司将于年内重新组建成立</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplv9PDC3u6B0sAbVSWkij_6jC7NdMoALBlC0bJ7XtoutCVlg80SZa2gRNwplIqVxVvzZG9gSjXdayQGm-L01XouWszcF6lgNHlCD5NHK5uPk-A==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph274DP_97CZ-c8OITgw2iXW7j5kv6G96iSu9_lSJQf_NUfhwIm8rlxmlwnUK6MHhLBoa-l1fzCt0VpxvebVo5WcuP8TOS9r0Vc408GsiN3UW5fjzZsUYfk5K&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>股改消除发展瓶颈</t>
+          <t>谁是京城地产“黑马”</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>吴铭;易非</t>
+          <t>孟坚</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1946,32 +1922,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2005/10/13</t>
+          <t>2001-11-05</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>万科(000002)及其大股东华润股份昨日在深召开投资者推介会，在介绍股改方案的同时，了解投资者的认识、想法和要求。相互沟通中的华润与机构投资者都展示了对公司长期发展的信心，认同股改消除公司发展瓶颈的积极作用。$$推介会现场的沟通气氛相当热烈，一</t>
+          <t>目前，在北京做地产开发的上市公司大致有三类：一是较早进入地产行业的，如深万科和金地集团，由于多年从事地产开发，这类公司市场运作手法娴熟，并具有一定的专业水准；二是北京</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5PnbZppE-SH0kmtsWcUlZoujO-8b8GtR4e3NhdaWU2BLE0pa4HNwp8iW9K9AIA38Ud&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph274DP_97CZ-c8OITgw2iXW7j5kv6G96iSu9_lSJQf_NUfhwIm8rlxml-OgqXkVmUpVmFIRkqHyrjb9E79Qw_oGYIZ-Olf2EZhESqquJxIk1lSZlSO9ruNbb&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>高对价预期应声落地</t>
+          <t>王石：万科地产业务要做大</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>徐建华</t>
+          <t>孟坚</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1981,32 +1957,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2005/10/12</t>
+          <t>2001-09-13</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>上海永久、万科两只含B股公司率先股改拉开了含B股、H股等特殊公司股改的大幕，全面股改也由此进入攻坚阶段。虽然上海永久10送5的对价水平高于目前股改平均对价水平，但或许是仍低于此前市场预期的原因，本周一非但两市B股因得不到对价的预期得到证实而大幅下跌，A股</t>
+          <t>日前，万科公司董事长王石在接受京城媒体记者采访时，就该公司今后的发展方向、香港华润集团入主万科后的合作方式，发表了他的个人看法。$$先从华远</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5PpUm2v0NRIjYjigMx--iwxWHptGLZQk1_G2IvKi7RSpgi6FYor14AG3rlh6zin9yX&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26gateQB2TyanXWJ3FcctJPsh6H__1IghTNGr5tFOLKFq9HGUXRFZHHdvrjYaYc1Q6D_6yS3WHlYlOEhml_-k5NziahWjPd5SZWGAduj28YQlhaJuC3Nmea&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>万科认沽权证是否最佳选择</t>
+          <t>万科为何要扔香饽饽</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>熊永红</t>
+          <t>何凌枫</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2016,32 +1992,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2005/10/12</t>
+          <t>2001-09-04</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>万科A推出的以大股东华润股份向所有流通A股股东派送认沽权证作为对价，并辅以减持承诺的股权分置改革方案，引来市场极大关注，市场分析人士对之褒贬不一:看好者认为，这一对价方案是根据万科的实际情况作出的“最佳”选择，极大地体现了大股东改革的诚意；不看好者表示，</t>
+          <t>8月28日，深万科宣布拟将万佳百货以45735．84万元的价格转让给公司第一大股东中国华润总公司及其下属公司，转让完成后，预计公司2001年度净利润可以因此而增加17150万元。如果这一议</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5Pl7G5qrrS4W2BdIs4DgZKqtdw8DKS-1YgQyfE5142y3Zr8oJwpGcmlObkzZTHQv3V&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26gateQB2TyanXWJ3FcctJPsh6H__1IghTNGr5tFOLKFq9HGUXRFZHHaAil_O0pxr1DyQlTGWpksqok5-j7iD-R-SfueV_YDiGfqcODNKnEduKTvtvmIdsC&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B股走势走出结构性机会</t>
+          <t>深万科全面退出零售业</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>李宇</t>
+          <t>何凌枫</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2051,32 +2027,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2005/10/11</t>
+          <t>2001-08-28</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>昨日，上海永久和万科两家含B股公司的股改方案成为左右大盘的重要力量。但永久B股和万科B股却呈现迥异走势，市场人士则从B股变局中探出隐藏的结构性机会。$$永久万科表现各异$$永久B昨日开盘停牌一小时，复牌后下探至0.244美元的全日最低点，</t>
+          <t>本报深圳电（记者何凌枫）深万科（0002）日前决定将所持有的深圳市万佳百货股份有限公司72％的股份，全部转让给中国华润总公司及其下属公司。至此，深万科历时多年的专业化战略调整已全部完成，今后该公</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5P2En2kBTaw2ddxctL80IiUHxiT5qnnVUQRDptSfmdI5FacGf73Wg-0AScpoXIROix&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26gateQB2TyanXWJ3FcctJPsh6H__1IghTNGr5tFOLKFqjCl2D70LCnsHe4H1UL7Wl4v_yPVE2T10N1Ne5ycHiquVjzswmWKh-o1HgpA1QXtA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>万科寻求提升股改方案市场认知度</t>
+          <t>寻找新婆家</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>吴铭</t>
+          <t>曹腾</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2086,32 +2062,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2005/10/11</t>
+          <t>2001-08-18</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>万科(000002)董事兼董事会秘书肖莉昨日在接受记者采访时表示，公司接下来将加大对单纯认沽权证方案的介绍、推广力度。$$尽管此前有几家已推出权证方案，但市场关注点仍在送股上面，导致目前市场对万科单纯权证方案的理解仍不太深。肖莉向记者强调，认沽权</t>
+          <t>在中国人眼里，谈婚论嫁找婆家，意义非同小可。对上市公司来说，同样如此。$$本周内，济南百货董事会明确表示，它不要华建电子这个新婆家。为此</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5POJXbg2ttfQVcJI__z72haipITFmi9cgzJRYICySQ2fkUaewNhFIYldGITcKiz-Zf&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26gateQB2TyanXWJ3FcctJPsh6H__1IghTNGr5tFOLKFqjCl2D70LCnwAUyTO5sh3vuatCXdp-6BPLJip4yRAARpYm-imToz16GUQbkSw-tuyxFiVH4Vkoi&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>投资评级简报</t>
+          <t>房企叫响芝麻开门</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>龙跃</t>
+          <t>何凌枫</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2121,32 +2097,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2001-08-01</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>万科未来发展值得看好$$国信证券方焱预计，万科2005、2006年EPS分别为0.35元和0.43元，对应2005、2006年动态PE分别为10.83倍和8.81倍，维持对公司“谨慎推荐”的投资评级。方焱指出，公司从2000年开始便着手大举增加土</t>
+          <t>日前，招商局（0024）发布公告称，公司控股70％的子公司深圳招商房地产有限公司获得了深圳市工商银行提供的10亿元人民币综合授信额度。此前，深万科也相继获得了中国银行和中</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5P9IGSh0Mw33HBvbwawLx810a0c6elZLvx4O4aFDjVy0wDRhRU0QlJVA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26gateQB2TyanXWJ3FcctJPsh6H__1IghTNGr5tFOLKFqjCl2D70LCnE6quhN-Hw4v6aGW3rnmUPZJhSJzNSUryBeV9s8MFpjo1HJoXKa4DCP1OCJdpKS0z&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>含B股上市公司股改破题</t>
+          <t>深万科拟发行15亿元可转债</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>孔维纯;吴铭</t>
+          <t>何凌枫</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2156,34 +2132,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2005/10/10</t>
+          <t>2001-07-12</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>上海永久(600818)、万科(000002)今日发布股改方案，成为沪深两市首批股改含B股的上市公司。本周，沪深两市有21家公司进入第四批股改程序，19家公布方案。$$从股改公告来看，两家公司均“绝口不提B股”，股改是A股相关股东之间的事，上海</t>
+          <t>本报深圳电（记者何凌枫）深万科（0002）今日董事会公告称，公司拟发行总规模不超过15亿元人民币的可转换公司债券，募集资金拟用于房地产项目投资。为此，公司拟于8月15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5PCqxLa5nCgMYB1_5XDCUYD5H87qSJ6yz7l09NdKjLyMqAtJdWqvA7v2a-Mm4JZFrP&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26gateQB2TyanXWJ3FcctJPsh6H__1IghTNGr5tFOLKFoCkWD9_BOqdFeSyCbxNN3Qz0js7_yG4HgonpRORc3UQoiVDNaDqzeHYDRaVo05hfms5mOFyxDro&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A股股改　不言B股 情法有据</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>程胜</t>
-        </is>
-      </c>
+          <t>深万科  能否再现地产龙头风范？</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -2191,20 +2163,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2005/10/10</t>
+          <t>2001-04-13</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>股改以来，历次公布的公司名单均不见含B股公司踪影，引起了人们的忧虑，甚至担心可能因局部受阻进而拖累股改大计的实施。国庆长假刚过，悬念即得破解。今日，沪市的上海永久、深市的万科公告启动股改，方案毫不拖泥带水，充分表现了“股改为A股市场自家事”的基本原则，也</t>
+          <t>自房地产企业上市禁令打破后首家拔得上市“头筹”的天鸿宝业（600376），3月12日上市当天高开高走，随后一路攻营拔寨，昨日收盘于34．3元，大有王者风范。而昨日上市</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluC2GfTN3FvB1HjNOeXEQtEVXio5hesJ4QJ1QE4kZOoAF1QjXNdEh5P3xm4dwMxOuBCzD3fXggYILNu1ACaWBgUmPhIke15iV9i8V0BXolyBTQGDhcb7Z9v&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25eJHl9OQG-b9vaJGo1yZEcirCv3QeRBICGfkLMVprSjh0MPsLJwZaaWxVanuTrqPg_vYrRA-CSas4v53RzuTkRyoz4sm9_2M3ZkiUXCQtZLDFsLVhqwPde&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
